--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -892,42 +892,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -892,42 +892,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.21484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -1573,13 +1573,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -1657,7 +1657,7 @@
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>99</v>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -892,42 +892,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.21484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
+++ b/docs/StructureDefinition-SubEspecialidadMedicaDestinoCodigo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="180">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>Value of extension</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSEspecialidadMed</t>
   </si>
   <si>
     <t>Extension.value[x]:valueCodeableConcept.id</t>
@@ -917,7 +923,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.72265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1621,13 +1627,11 @@
         <v>73</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>73</v>
@@ -1665,10 +1669,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1768,14 +1772,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1797,13 +1801,13 @@
         <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1873,10 +1877,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1899,19 +1903,19 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -1960,7 +1964,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -1975,15 +1979,15 @@
         <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2083,14 +2087,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2112,13 +2116,13 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2188,10 +2192,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2199,7 +2203,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
@@ -2217,16 +2221,16 @@
         <v>95</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2275,7 +2279,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2290,15 +2294,15 @@
         <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2324,13 +2328,13 @@
         <v>80</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2380,7 +2384,7 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2395,15 +2399,15 @@
         <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2426,17 +2430,17 @@
         <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -2485,7 +2489,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2500,15 +2504,15 @@
         <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2534,14 +2538,14 @@
         <v>80</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -2590,7 +2594,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2605,15 +2609,15 @@
         <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2636,19 +2640,19 @@
         <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
@@ -2697,7 +2701,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2712,15 +2716,15 @@
         <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2746,16 +2750,16 @@
         <v>80</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -2804,7 +2808,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -2819,7 +2823,7 @@
         <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
